--- a/mars/data/photons/CO2 photoion.xlsx
+++ b/mars/data/photons/CO2 photoion.xlsx
@@ -1,24 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8bb666d489d68025/Mars-Chemistry/data/photons/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8bb666d489d68025/saguaro-photochem/mars/data/photons/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_243CA31CD8893426F29A2D4B694C2838B6822757" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8175"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -72,7 +83,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -161,7 +172,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1204,7 +1214,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1339,7 +1348,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1495,7 +1503,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2502,7 +2509,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2637,7 +2643,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2793,7 +2798,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3797,7 +3801,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3932,7 +3935,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4088,7 +4090,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5035,7 +5036,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5170,7 +5170,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5326,7 +5325,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6210,7 +6208,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6345,7 +6342,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9258,7 +9254,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -9288,7 +9290,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -9320,7 +9328,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -9352,7 +9366,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -9384,7 +9404,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="11" name="Chart 10"/>
+        <xdr:cNvPr id="11" name="Chart 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -9666,10 +9692,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="L121" sqref="L121"/>
     </sheetView>
   </sheetViews>
